--- a/Fightcard.xlsx
+++ b/Fightcard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JenData\Fmlucha\MMapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B14E8-E806-4C22-B264-06C984E3B137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF509085-1B04-4C8C-B776-100F00A184AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E5A6F4D-398E-4212-BE89-6E0F06722873}"/>
   </bookViews>
@@ -102,10 +102,10 @@
     <t>ALEJANDRO RUIZ</t>
   </si>
   <si>
-    <t>VICTOR SAEZ</t>
-  </si>
-  <si>
     <t>URIOL FORNELL</t>
+  </si>
+  <si>
+    <t>SMAIKEEL ROSAS</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,10 +571,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
